--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N2">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O2">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P2">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q2">
-        <v>0.012823789705</v>
+        <v>0.27928343799125</v>
       </c>
       <c r="R2">
-        <v>0.05129515882000001</v>
+        <v>1.117133751965</v>
       </c>
       <c r="S2">
-        <v>4.580621337030981E-06</v>
+        <v>1.376117045232083E-05</v>
       </c>
       <c r="T2">
-        <v>2.043981007727936E-06</v>
+        <v>6.144276136583855E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.41747</v>
       </c>
       <c r="O3">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P3">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q3">
-        <v>0.09439135856666667</v>
+        <v>0.2839836196083334</v>
       </c>
       <c r="R3">
-        <v>0.5663481513999999</v>
+        <v>1.70390171765</v>
       </c>
       <c r="S3">
-        <v>3.371632575300527E-05</v>
+        <v>1.399276313413097E-05</v>
       </c>
       <c r="T3">
-        <v>2.256752667996565E-05</v>
+        <v>9.371521220647122E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N4">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O4">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P4">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q4">
-        <v>6.383048589233334</v>
+        <v>23.34836629128667</v>
       </c>
       <c r="R4">
-        <v>38.2982915354</v>
+        <v>140.09019774772</v>
       </c>
       <c r="S4">
-        <v>0.002280006865033639</v>
+        <v>0.001150447196685126</v>
       </c>
       <c r="T4">
-        <v>0.001526089056502997</v>
+        <v>0.0007705011664687371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H5">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I5">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J5">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,22 +753,22 @@
         <v>0.132276</v>
       </c>
       <c r="O5">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P5">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q5">
-        <v>0.04486206678</v>
+        <v>0.134970958155</v>
       </c>
       <c r="R5">
-        <v>0.17944826712</v>
+        <v>0.5398838326200001</v>
       </c>
       <c r="S5">
-        <v>1.602460310431118E-05</v>
+        <v>6.65044219823092E-06</v>
       </c>
       <c r="T5">
-        <v>7.150554912015561E-06</v>
+        <v>2.969380652459623E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H6">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I6">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J6">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N6">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O6">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P6">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q6">
-        <v>0.07594991849333332</v>
+        <v>118.1724369491325</v>
       </c>
       <c r="R6">
-        <v>0.4556995109599999</v>
+        <v>709.034621694795</v>
       </c>
       <c r="S6">
-        <v>2.712909562613001E-05</v>
+        <v>0.005822726400532556</v>
       </c>
       <c r="T6">
-        <v>1.815846109184828E-05</v>
+        <v>0.003899716124795395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H7">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I7">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J7">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N7">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O7">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P7">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q7">
-        <v>5.722017405966667</v>
+        <v>13.84026451385417</v>
       </c>
       <c r="R7">
-        <v>34.3321044358</v>
+        <v>83.04158708312501</v>
       </c>
       <c r="S7">
-        <v>0.002043888399886512</v>
+        <v>0.0006819532173129492</v>
       </c>
       <c r="T7">
-        <v>0.001368046635128972</v>
+        <v>0.0004567317395624446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J8">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N8">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O8">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P8">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q8">
-        <v>2.043492028991667</v>
+        <v>14.79246972519167</v>
       </c>
       <c r="R8">
-        <v>12.26095217395</v>
+        <v>88.75481835115001</v>
       </c>
       <c r="S8">
-        <v>0.0007299295610253429</v>
+        <v>0.0007288713529283311</v>
       </c>
       <c r="T8">
-        <v>0.0004885676145025014</v>
+        <v>0.000488154718665139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J9">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.41747</v>
       </c>
       <c r="O9">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P9">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q9">
         <v>15.04141858794445</v>
@@ -1013,10 +1013,10 @@
         <v>135.3727672915</v>
       </c>
       <c r="S9">
-        <v>0.005372752088744014</v>
+        <v>0.0007411378437696523</v>
       </c>
       <c r="T9">
-        <v>0.005394258867164562</v>
+        <v>0.0007445551279329193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J10">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N10">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O10">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P10">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q10">
-        <v>1017.149314892389</v>
+        <v>1236.664816147689</v>
       </c>
       <c r="R10">
-        <v>9154.343834031501</v>
+        <v>11129.9833453292</v>
       </c>
       <c r="S10">
-        <v>0.3633228524424341</v>
+        <v>0.06093435203246649</v>
       </c>
       <c r="T10">
-        <v>0.3647772102749817</v>
+        <v>0.06121531190781216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J11">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>0.132276</v>
       </c>
       <c r="O11">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P11">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q11">
         <v>7.1488442947</v>
@@ -1137,10 +1137,10 @@
         <v>42.8930657682</v>
       </c>
       <c r="S11">
-        <v>0.002553546920583646</v>
+        <v>0.000352245967695192</v>
       </c>
       <c r="T11">
-        <v>0.001709179068946414</v>
+        <v>0.000235913416778343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J12">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N12">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O12">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P12">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q12">
-        <v>12.10274471228889</v>
+        <v>6259.097240048049</v>
       </c>
       <c r="R12">
-        <v>108.9247024106</v>
+        <v>56331.87516043245</v>
       </c>
       <c r="S12">
-        <v>0.004323066109243357</v>
+        <v>0.3084053412456582</v>
       </c>
       <c r="T12">
-        <v>0.004340371062714719</v>
+        <v>0.309827355648735</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J13">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N13">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O13">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P13">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q13">
-        <v>911.8129061556111</v>
+        <v>733.0606328909721</v>
       </c>
       <c r="R13">
-        <v>8206.3161554005</v>
+        <v>6597.54569601875</v>
       </c>
       <c r="S13">
-        <v>0.3256969857894765</v>
+        <v>0.03612019528854019</v>
       </c>
       <c r="T13">
-        <v>0.327000729716223</v>
+        <v>0.03628674051676092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H14">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I14">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J14">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N14">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O14">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P14">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q14">
-        <v>0.3324215633911667</v>
+        <v>6.786924989705001</v>
       </c>
       <c r="R14">
-        <v>1.994529380347</v>
+        <v>40.72154993823001</v>
       </c>
       <c r="S14">
-        <v>0.0001187400402834955</v>
+        <v>0.0003344130690391044</v>
       </c>
       <c r="T14">
-        <v>7.947689931306145E-05</v>
+        <v>0.0002239700009869663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H15">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I15">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J15">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.41747</v>
       </c>
       <c r="O15">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P15">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q15">
-        <v>2.446836988687778</v>
+        <v>6.901145082033335</v>
       </c>
       <c r="R15">
-        <v>22.02153289819</v>
+        <v>62.11030573830001</v>
       </c>
       <c r="S15">
-        <v>0.0008740032374556058</v>
+        <v>0.0003400410510308589</v>
       </c>
       <c r="T15">
-        <v>0.0008775018157738162</v>
+        <v>0.0003416089333193115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H16">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I16">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J16">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N16">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O16">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P16">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q16">
-        <v>165.4630214660656</v>
+        <v>567.3935117344267</v>
       </c>
       <c r="R16">
-        <v>1489.16719319459</v>
+        <v>5106.54160560984</v>
       </c>
       <c r="S16">
-        <v>0.05910292230708997</v>
+        <v>0.02795725691676344</v>
       </c>
       <c r="T16">
-        <v>0.05933950747481592</v>
+        <v>0.02808616396437028</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H17">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I17">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J17">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1497,22 +1497,22 @@
         <v>0.132276</v>
       </c>
       <c r="O17">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P17">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q17">
-        <v>1.162925992942</v>
+        <v>3.279957362940001</v>
       </c>
       <c r="R17">
-        <v>6.977555957652</v>
+        <v>19.67974417764</v>
       </c>
       <c r="S17">
-        <v>0.0004153938686768309</v>
+        <v>0.0001616137808686536</v>
       </c>
       <c r="T17">
-        <v>0.0002780377756085403</v>
+        <v>0.0001082393064501527</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H18">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I18">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J18">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N18">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O18">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P18">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q18">
-        <v>1.968793252679556</v>
+        <v>2871.73300068561</v>
       </c>
       <c r="R18">
-        <v>17.719139274116</v>
+        <v>25845.59700617049</v>
       </c>
       <c r="S18">
-        <v>0.0007032473698403181</v>
+        <v>0.1414992868901434</v>
       </c>
       <c r="T18">
-        <v>0.0007060624234866003</v>
+        <v>0.1421517205450541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H19">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I19">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J19">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N19">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O19">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P19">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q19">
-        <v>148.3276017152145</v>
+        <v>336.3351503004167</v>
       </c>
       <c r="R19">
-        <v>1334.94841543693</v>
+        <v>3027.01635270375</v>
       </c>
       <c r="S19">
-        <v>0.05298219893784077</v>
+        <v>0.01657228715630458</v>
       </c>
       <c r="T19">
-        <v>0.05319428324658391</v>
+        <v>0.01664869968188863</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H20">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I20">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J20">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N20">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O20">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P20">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q20">
-        <v>0.008411605209500001</v>
+        <v>0.12475695070825</v>
       </c>
       <c r="R20">
-        <v>0.03364642083800001</v>
+        <v>0.499027802833</v>
       </c>
       <c r="S20">
-        <v>3.004601540392826E-06</v>
+        <v>6.147166033747423E-06</v>
       </c>
       <c r="T20">
-        <v>1.340723895840225E-06</v>
+        <v>2.744671007428964E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H21">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I21">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J21">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.41747</v>
       </c>
       <c r="O21">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P21">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q21">
-        <v>0.06191483654333334</v>
+        <v>0.1268565393216667</v>
       </c>
       <c r="R21">
-        <v>0.37148901926</v>
+        <v>0.76113923593</v>
       </c>
       <c r="S21">
-        <v>2.211580413226826E-05</v>
+        <v>6.250619346256E-06</v>
       </c>
       <c r="T21">
-        <v>1.480288817530397E-05</v>
+        <v>4.186293392099469E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H22">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I22">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J22">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N22">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O22">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P22">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q22">
-        <v>4.186881257476667</v>
+        <v>10.42980208017733</v>
       </c>
       <c r="R22">
-        <v>25.12128754486</v>
+        <v>62.578812481064</v>
       </c>
       <c r="S22">
-        <v>0.001495542118577866</v>
+        <v>0.0005139090425182583</v>
       </c>
       <c r="T22">
-        <v>0.001001019117838189</v>
+        <v>0.0003441857373898447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H23">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I23">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J23">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1869,22 +1869,22 @@
         <v>0.132276</v>
       </c>
       <c r="O23">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P23">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q23">
-        <v>0.029426714202</v>
+        <v>0.060292029111</v>
       </c>
       <c r="R23">
-        <v>0.117706856808</v>
+        <v>0.241168116444</v>
       </c>
       <c r="S23">
-        <v>1.051113891081964E-05</v>
+        <v>2.970777270146449E-06</v>
       </c>
       <c r="T23">
-        <v>4.690317474971874E-06</v>
+        <v>1.32643338379608E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H24">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I24">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J24">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N24">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O24">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P24">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q24">
-        <v>0.04981840351066667</v>
+        <v>52.78806719644649</v>
       </c>
       <c r="R24">
-        <v>0.298910421064</v>
+        <v>316.7284031786789</v>
       </c>
       <c r="S24">
-        <v>1.77949925370972E-05</v>
+        <v>0.002601033544143155</v>
       </c>
       <c r="T24">
-        <v>1.191081649265817E-05</v>
+        <v>0.001742017700213606</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H25">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I25">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J25">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N25">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O25">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P25">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q25">
-        <v>3.753286082203334</v>
+        <v>6.182497645270833</v>
       </c>
       <c r="R25">
-        <v>22.51971649322</v>
+        <v>37.094985871625</v>
       </c>
       <c r="S25">
-        <v>0.001340663150879548</v>
+        <v>0.0003046310390962375</v>
       </c>
       <c r="T25">
-        <v>0.0008973531590589825</v>
+        <v>0.0002040237671425055</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H26">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I26">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J26">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N26">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O26">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P26">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q26">
-        <v>0.022342368656</v>
+        <v>13.35998828507467</v>
       </c>
       <c r="R26">
-        <v>0.134054211936</v>
+        <v>80.15992971044801</v>
       </c>
       <c r="S26">
-        <v>7.980630760467217E-06</v>
+        <v>0.0006582885020116445</v>
       </c>
       <c r="T26">
-        <v>5.341717805468324E-06</v>
+        <v>0.0004408825195405748</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H27">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I27">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J27">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.41747</v>
       </c>
       <c r="O27">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P27">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q27">
-        <v>0.1644542354133333</v>
+        <v>13.58482929889778</v>
       </c>
       <c r="R27">
-        <v>1.48008811872</v>
+        <v>122.26346369008</v>
       </c>
       <c r="S27">
-        <v>5.874258678818772E-05</v>
+        <v>0.0006693671235659573</v>
       </c>
       <c r="T27">
-        <v>5.897772955618368E-05</v>
+        <v>0.0006724534828579603</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H28">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I28">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J28">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N28">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O28">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P28">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q28">
-        <v>11.12092665354667</v>
+        <v>1116.907978399332</v>
       </c>
       <c r="R28">
-        <v>100.08833988192</v>
+        <v>10052.17180559398</v>
       </c>
       <c r="S28">
-        <v>0.003972363481360786</v>
+        <v>0.05503355723797635</v>
       </c>
       <c r="T28">
-        <v>0.003988264594940638</v>
+        <v>0.05528730936408696</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H29">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I29">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J29">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2241,22 +2241,22 @@
         <v>0.132276</v>
       </c>
       <c r="O29">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P29">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q29">
-        <v>0.078161359296</v>
+        <v>6.456560520544</v>
       </c>
       <c r="R29">
-        <v>0.468968155776</v>
+        <v>38.739363123264</v>
       </c>
       <c r="S29">
-        <v>2.791901601310627E-05</v>
+        <v>0.0003181349760586769</v>
       </c>
       <c r="T29">
-        <v>1.868718268324371E-05</v>
+        <v>0.000213067901642081</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H30">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I30">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J30">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N30">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O30">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P30">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q30">
-        <v>0.1323244623786667</v>
+        <v>5652.975287809935</v>
       </c>
       <c r="R30">
-        <v>1.190920161408</v>
+        <v>50876.77759028942</v>
       </c>
       <c r="S30">
-        <v>4.726592292343535E-05</v>
+        <v>0.2785398126642481</v>
       </c>
       <c r="T30">
-        <v>4.74551253497462E-05</v>
+        <v>0.279824121242819</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H31">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I31">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J31">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N31">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O31">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P31">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q31">
-        <v>9.969238835093334</v>
+        <v>662.0720981428888</v>
       </c>
       <c r="R31">
-        <v>89.72314951584001</v>
+        <v>5958.648883286</v>
       </c>
       <c r="S31">
-        <v>0.003560983856759713</v>
+        <v>0.03262236765559805</v>
       </c>
       <c r="T31">
-        <v>0.00357523824436247</v>
+        <v>0.03277278488404604</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H32">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I32">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J32">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.0189055</v>
+        <v>0.1368535</v>
       </c>
       <c r="N32">
-        <v>0.037811</v>
+        <v>0.273707</v>
       </c>
       <c r="O32">
-        <v>0.001039786983778734</v>
+        <v>0.001789598105753512</v>
       </c>
       <c r="P32">
-        <v>0.0006942737700079277</v>
+        <v>0.001194121989944459</v>
       </c>
       <c r="Q32">
-        <v>0.4914695458306667</v>
+        <v>0.9765330662815003</v>
       </c>
       <c r="R32">
-        <v>2.948817274984</v>
+        <v>5.859198397689002</v>
       </c>
       <c r="S32">
-        <v>0.0001755515288320051</v>
+        <v>4.811684528836352E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001175028334833283</v>
+        <v>3.222580360776602E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H33">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I33">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J33">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.41747</v>
       </c>
       <c r="O33">
-        <v>0.007653502457276247</v>
+        <v>0.001819716025309104</v>
       </c>
       <c r="P33">
-        <v>0.007665453724186336</v>
+        <v>0.001821327577088321</v>
       </c>
       <c r="Q33">
-        <v>3.617532663297778</v>
+        <v>0.992967563076667</v>
       </c>
       <c r="R33">
-        <v>32.55779396968</v>
+        <v>8.936708067690002</v>
       </c>
       <c r="S33">
-        <v>0.001292172414403166</v>
+        <v>4.892662446224884E-05</v>
       </c>
       <c r="T33">
-        <v>0.001297344896836505</v>
+        <v>4.91522183653837E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H34">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I34">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J34">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.410223333333334</v>
+        <v>11.44108533333333</v>
       </c>
       <c r="N34">
-        <v>28.23067</v>
+        <v>34.323256</v>
       </c>
       <c r="O34">
-        <v>0.5175545601254098</v>
+        <v>0.149612137360737</v>
       </c>
       <c r="P34">
-        <v>0.5183627434013833</v>
+        <v>0.1497446347959427</v>
       </c>
       <c r="Q34">
-        <v>244.6292448122756</v>
+        <v>81.63911147430134</v>
       </c>
       <c r="R34">
-        <v>2201.66320331048</v>
+        <v>734.7520032687121</v>
       </c>
       <c r="S34">
-        <v>0.08738087291091341</v>
+        <v>0.004022614934327327</v>
       </c>
       <c r="T34">
-        <v>0.08773065288230392</v>
+        <v>0.004041162655814709</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H35">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I35">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J35">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2613,22 +2613,22 @@
         <v>0.132276</v>
       </c>
       <c r="O35">
-        <v>0.003637535718873235</v>
+        <v>0.0008648696563721479</v>
       </c>
       <c r="P35">
-        <v>0.002428810589552475</v>
+        <v>0.0005770903935299179</v>
       </c>
       <c r="Q35">
-        <v>1.719331031824</v>
+        <v>0.4719349080420001</v>
       </c>
       <c r="R35">
-        <v>10.315986190944</v>
+        <v>2.831609448252001</v>
       </c>
       <c r="S35">
-        <v>0.0006141401715845205</v>
+        <v>2.325371228124809E-05</v>
       </c>
       <c r="T35">
-        <v>0.0004110656899272894</v>
+        <v>1.557395462308548E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H36">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I36">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J36">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1119693333333333</v>
+        <v>57.90644699999999</v>
       </c>
       <c r="N36">
-        <v>0.335908</v>
+        <v>173.719341</v>
       </c>
       <c r="O36">
-        <v>0.006158221437273934</v>
+        <v>0.7572277498355255</v>
       </c>
       <c r="P36">
-        <v>0.006167837759800665</v>
+        <v>0.7578983554193351</v>
       </c>
       <c r="Q36">
-        <v>2.910767628483555</v>
+        <v>413.1977643712231</v>
       </c>
       <c r="R36">
-        <v>26.196908656352</v>
+        <v>3718.779879341007</v>
       </c>
       <c r="S36">
-        <v>0.001039717947103597</v>
+        <v>0.02035954909080017</v>
       </c>
       <c r="T36">
-        <v>0.001043879870665094</v>
+        <v>0.02045342415771805</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H37">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I37">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J37">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.435696666666667</v>
+        <v>6.781958333333333</v>
       </c>
       <c r="N37">
-        <v>25.30709</v>
+        <v>20.345875</v>
       </c>
       <c r="O37">
-        <v>0.4639563932773879</v>
+        <v>0.08868592901630265</v>
       </c>
       <c r="P37">
-        <v>0.4646808807550693</v>
+        <v>0.08876446982415946</v>
       </c>
       <c r="Q37">
-        <v>219.2953378398844</v>
+        <v>48.39340292095834</v>
       </c>
       <c r="R37">
-        <v>1973.65804055896</v>
+        <v>435.540626288625</v>
       </c>
       <c r="S37">
-        <v>0.0783316731425449</v>
+        <v>0.002384494659450636</v>
       </c>
       <c r="T37">
-        <v>0.07864522975371198</v>
+        <v>0.002395489234758908</v>
       </c>
     </row>
   </sheetData>
